--- a/data/surge/surgeData231.xlsx
+++ b/data/surge/surgeData231.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_231_parmley/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BDD61469-152C-4B45-B0B6-2B2A06A7BCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6BAF805-8767-450E-BD0D-00CBE42E42F0}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BDD61469-152C-4B45-B0B6-2B2A06A7BCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0902E2E-4496-4856-8844-11249078995D}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="2532" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1639,78 +1639,78 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J12" sqref="J12"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.453125" customWidth="1"/>
-    <col min="29" max="29" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" customWidth="1"/>
+    <col min="29" max="29" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>54</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="BO1" s="30"/>
       <c r="BP1" s="30"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>166</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>45.440753000000001</v>
       </c>
       <c r="E3">
-        <v>97.732077000000004</v>
+        <v>98.732077000000004</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>205</v>
@@ -2102,7 +2102,7 @@
         <v>4.0046296296296297E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>166</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>166</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>166</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>166</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>166</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>166</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>166</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>166</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>166</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>166</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>166</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>166</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>166</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>166</v>
       </c>
@@ -3434,14 +3434,14 @@
       <selection activeCell="A68" sqref="A68:A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -4132,17 +4132,17 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>59</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>166</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>166</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>166</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>166</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>166</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>166</v>
       </c>
@@ -4384,14 +4384,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>158</v>
       </c>
@@ -4516,10 +4516,56 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4990,70 +5036,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7050139B-2F2A-4D25-B791-7135559B8D09}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5067,10 +5063,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7050139B-2F2A-4D25-B791-7135559B8D09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>